--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1073.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1073.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8032301762388212</v>
+        <v>1.203705787658691</v>
       </c>
       <c r="B1">
-        <v>2.092787038393126</v>
+        <v>2.615059852600098</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.249841825406431</v>
+        <v>2.173031091690063</v>
       </c>
       <c r="E1">
-        <v>1.436301565487734</v>
+        <v>1.168587923049927</v>
       </c>
     </row>
   </sheetData>
